--- a/security/threats/profile-service.xlsx
+++ b/security/threats/profile-service.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25412"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4017D814-7917-4E2E-893D-9E4593F5AAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DAA14F6-828B-4E99-84E8-23D7A00BB41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="147">
-  <si>
-    <t>Faculty Information System Threat Model - Profile services</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="145">
+  <si>
+    <t>Faculty Information System Threat Model - Profile Services</t>
   </si>
   <si>
     <t>Application Version:</t>
@@ -42,11 +42,11 @@
     <t>Description:</t>
   </si>
   <si>
-    <t>Dislinkt is a social networking and media sharing system business oriented, deployed on proprietary servers. It's functionalities include storing and sharing user data as well as user-uploaded media, the microservice of which (hereinafter referred to as "profile microservice") is the subject of study of this document. The content microservice provides support for:
+    <t>Dislinkt is a social networking and media sharing system business oriented. It's functionalities include storing and sharing user data as well as user-uploaded media, the microservice of which (hereinafter referred to as "profile microservice") is the subject of study of this document. The content microservice provides support for:
     1) Registered users, who can upload their business information with predefined access rights; view previously stored own information; view other user's information, with adequate access rights; and remove their own information at wish (information here may be anything a user adds to his profle, ex. education, skills, jobs etc).
     2) Unregistered users, who can view publicly available media (if allowed by owners)
     3) Administrators, who can review public and private content and remove it upon violating Dislinkts's TOS (Terms of Service).
-Registered and unregistered users, admins and agents communicate with the microservice indirectly. Requests are sent to the API Gateway via HTTP/1.1 and internal communication is handled via REST.</t>
+Registered and unregistered users with the microservice indirectly. Requests are sent to the API Gateway via HTTP/1.1 and internal communication is handled via gRPC.</t>
   </si>
   <si>
     <t>Document Owner:</t>
@@ -94,10 +94,19 @@
     <t>1.2</t>
   </si>
   <si>
-    <t>User PII</t>
-  </si>
-  <si>
-    <t>Personally identifiable information of users.</t>
+    <t>User's data</t>
+  </si>
+  <si>
+    <t>Information related to user</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>User interactions</t>
+  </si>
+  <si>
+    <t>(Un)Following other users and accepting/declining follow requests.</t>
   </si>
   <si>
     <t>Service assets</t>
@@ -127,7 +136,7 @@
     <t>File storage</t>
   </si>
   <si>
-    <t>Contains documents produced by the subsystem.</t>
+    <t>Contains documents produced by the logger.</t>
   </si>
   <si>
     <t>Technical data assets</t>
@@ -145,7 +154,7 @@
     <t>3.2</t>
   </si>
   <si>
-    <t>Log(audit) files</t>
+    <t>Log files</t>
   </si>
   <si>
     <t>Log information containing entries of system and user activities.</t>
@@ -157,14 +166,13 @@
     <t>Configuration files</t>
   </si>
   <si>
-    <t>Contains microservice specific configurations</t>
+    <t>Information related to the proper functioning and configuration of system components.</t>
   </si>
   <si>
     <t>Entry Points</t>
   </si>
   <si>
-    <t xml:space="preserve">Communication entry points are kept as sparse as possible so as to lower security risks. Main channels are via REST where API Gateway requests and responses are routed to and fro, as well as other microservice communication.
-</t>
+    <t>Requests are sent to API Gateway via REST. Further, those requests and responses are routed to other microservices which can also communicate with each other.</t>
   </si>
   <si>
     <t>HTTP/1.1</t>
@@ -173,7 +181,7 @@
     <t>Communication channel used by external actors (registered and unregistered users) to access the system</t>
   </si>
   <si>
-    <t>REST</t>
+    <t>gRPC</t>
   </si>
   <si>
     <t>Inter-microservice communication.</t>
@@ -191,14 +199,14 @@
     <t>Infrastructure</t>
   </si>
   <si>
-    <t>Preferred deployment OS is Linux based, but depends on proprietary servers. Microservice is containerized via Docker, alpine 3.16.0 image. MongoDB is the preferred database.</t>
+    <t>Microservice is containerized via Docker, alpine 3.16.0 image. MongoDB is the preferred database.</t>
   </si>
   <si>
     <t>All outside communication is handled via TLS protocol:
     - Version 1.3</t>
   </si>
   <si>
-    <t>Communication between microservices is handled via shared secret. Every microservice has a secret in configuration file. When the request is sent, hashed secret from request header is compared with the one in the configuration file.</t>
+    <t>Communication between microservices is handled via gRPC.</t>
   </si>
   <si>
     <t>Application Technology</t>
@@ -207,8 +215,8 @@
     <t>Backend is based on a frameworkless Go implementation</t>
   </si>
   <si>
-    <t xml:space="preserve">Backend 3rd party libraries include:
-                        </t>
+    <t>Backend 3rd party libraries include:
+- crypto, logrus, gopkg ...</t>
   </si>
   <si>
     <t>The frontend is built using Angular Framework and Bootstrap CSS library v5.2.0.</t>
@@ -224,7 +232,7 @@
     <t>Context Diagram</t>
   </si>
   <si>
-    <t>Registered users send their requests to their respective API gateways which if valid are routed to the Profile Microservice.
+    <t>Registered users send their requests to their API gateway which if valid are routed to the Profile Microservice.
 Microservice also communicates with other microservices, such as post and authorization.</t>
   </si>
   <si>
@@ -247,85 +255,76 @@
     <t>Likelihood</t>
   </si>
   <si>
-    <t>User -&gt; Post MS</t>
+    <t>User -&gt; Profile MS</t>
   </si>
   <si>
     <t>Spoofing</t>
   </si>
   <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Attack Scenario</t>
+  </si>
+  <si>
+    <t>Countermeasure</t>
+  </si>
+  <si>
+    <t>Someone trying to mimick  trusted source (MIM)</t>
+  </si>
+  <si>
+    <t>Yes; HTTPS solves these attacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password brute force attacks  </t>
+  </si>
+  <si>
+    <t>Yes; blocking user account implemented after few failed logging attempts.</t>
+  </si>
+  <si>
+    <t>PROCESS: Profile MS</t>
+  </si>
+  <si>
+    <t>Tampering</t>
+  </si>
+  <si>
+    <t>NoSQL Injection</t>
+  </si>
+  <si>
+    <t>Yes. MongoDB database solves this attacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XSS </t>
+  </si>
+  <si>
+    <t>Yes. Built in Angular</t>
+  </si>
+  <si>
+    <t>Attacker accesses server and changes data and configuration files.</t>
+  </si>
+  <si>
+    <t>No. Access to files and folders should be enforced through ACL - no ACL</t>
+  </si>
+  <si>
+    <t>Attacker infects machine with malware</t>
+  </si>
+  <si>
+    <t>No. USB ports are not disabled.</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Denial of service</t>
+  </si>
+  <si>
     <t>Low</t>
   </si>
   <si>
-    <t>Attack Scenario</t>
-  </si>
-  <si>
-    <t>Countermeasure</t>
-  </si>
-  <si>
-    <t>Men in the middle attack</t>
-  </si>
-  <si>
-    <t>Yes, HTTPS.</t>
-  </si>
-  <si>
-    <t>PROCESS: Post MS</t>
-  </si>
-  <si>
-    <t>Tampering</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>NoSQL Injection</t>
-  </si>
-  <si>
-    <t>Yes. Built in Angular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XSS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Path traversal </t>
-  </si>
-  <si>
-    <t>Yes, Angular won't allow path traversal</t>
-  </si>
-  <si>
-    <t>Attacker accesses server and changes data and configuration files.</t>
-  </si>
-  <si>
-    <t>Yes. Two-factor authentication is required. Access to files and folders is enforced through ACLs</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>Admin changes files.</t>
-  </si>
-  <si>
-    <t>No. Admin has all the rights.</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>Attacker infects machine with malware</t>
-  </si>
-  <si>
-    <t>No. USB ports are not disabled.</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Denial of service</t>
-  </si>
-  <si>
     <t>Bot network attack</t>
   </si>
   <si>
-    <t>Load balancing, clustering</t>
+    <t>No; The API Gateway is responsible for request routing and can implement load balancing mechanism.</t>
   </si>
   <si>
     <t>4</t>
@@ -364,16 +363,19 @@
     <t>5</t>
   </si>
   <si>
+    <t>FLOW: Profile MS</t>
+  </si>
+  <si>
     <t>Information Disclosure</t>
   </si>
   <si>
     <t>5.1</t>
   </si>
   <si>
-    <t>Attacker exploits TLS vulnerabilities present in earlier versions of the protocol (i.e., SSL).</t>
-  </si>
-  <si>
-    <t>Yes; TLS 1.2 is utilized, following a best practice configuration hardening procedure.</t>
+    <t>External anonymous attacker sniffs all data, including credentials, cookies, student personal data, etc.</t>
+  </si>
+  <si>
+    <t>Yes; Transport Layer Security shall be used to provide HTTPS communication.</t>
   </si>
   <si>
     <t>5.2</t>
@@ -382,7 +384,7 @@
     <t>Attacker intercepts HTTPS handshake and delivers his certificate to the victim. The victim accepts a bad certificate.</t>
   </si>
   <si>
-    <t xml:space="preserve">No. </t>
+    <t>No; Implement HSTS header to disallow users to accept bad certificates.</t>
   </si>
   <si>
     <t>5.3</t>
@@ -394,15 +396,6 @@
     <t>No. Root always wins. Yes. Group members are reliable.</t>
   </si>
   <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>Attacker tries to intercepts  communication between two microservices.</t>
-  </si>
-  <si>
-    <t>Yes. Microservice "handshake".</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -415,7 +408,7 @@
     <t>User claiming to not have received service or has been improperly treated</t>
   </si>
   <si>
-    <t>Yes, proper logging</t>
+    <t>Yes, proper logging implemented</t>
   </si>
   <si>
     <t>Risks</t>
@@ -466,13 +459,13 @@
     <t>Change</t>
   </si>
   <si>
-    <t>Clusterize servers, implement load balancers.</t>
+    <t>Implement load balancers.</t>
   </si>
   <si>
     <t>Elevation of privilege would allow an external attacker to have access to important data. At the application level, however, there are sufficient, proven security controls that should stop this from happening.</t>
   </si>
   <si>
-    <t>Post service runs in docker container in an isolated network. All of the communication chanels to it support HTTPS</t>
+    <t>Profile service runs in docker container in an isolated network. All of the communication chanels to it support HTTPS</t>
   </si>
   <si>
     <t>Accept/Change</t>
@@ -488,7 +481,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,8 +575,13 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,12 +609,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,12 +892,8 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -915,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -970,34 +958,25 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1012,43 +991,40 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1066,36 +1042,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1147,34 +1123,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1248,22 +1242,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{847D77B0-ADD3-2AC0-F3F2-7E317CA21D60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BCBE456-B762-6830-847A-EE3693299FC2}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E08B67AF-16F2-C31C-4143-332D776EDDD4}"/>
@@ -1282,8 +1276,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="285750" y="4152900"/>
-          <a:ext cx="7820025" cy="3228975"/>
+          <a:off x="266700" y="4114800"/>
+          <a:ext cx="7810500" cy="3314700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1618,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1629,10 +1623,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="43"/>
     </row>
     <row r="2" spans="1:2" ht="30" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1643,32 +1637,32 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="46"/>
     </row>
     <row r="5" spans="1:2" ht="30" customHeight="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="6" spans="1:2" ht="30" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="30" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="46"/>
     </row>
     <row r="8" spans="1:2" ht="30" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="47"/>
     </row>
     <row r="9" spans="1:2" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
@@ -1705,10 +1699,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1720,19 +1714,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="E1" s="59" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="E1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10" ht="14.45" customHeight="1">
       <c r="A2" s="19" t="s">
@@ -1744,27 +1738,27 @@
       <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
+      <c r="C3" s="52"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
@@ -1776,14 +1770,14 @@
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+    </row>
+    <row r="5" spans="1:10" ht="15">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1793,44 +1787,44 @@
       <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="9">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="54"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="C7" s="50"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
@@ -1842,14 +1836,14 @@
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
@@ -1859,46 +1853,46 @@
       <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="9">
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-    </row>
-    <row r="11" spans="1:10" ht="28.9">
-      <c r="A11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="C11" s="50"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.9">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -1908,14 +1902,14 @@
       <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+    </row>
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
@@ -1925,265 +1919,282 @@
       <c r="C13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="55" t="s">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="E14" s="56" t="s">
+      <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-    </row>
-    <row r="15" spans="1:10" ht="13.9" customHeight="1">
-      <c r="A15" s="19" t="s">
+      <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="E15" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.9" customHeight="1">
+      <c r="A16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-    </row>
-    <row r="16" spans="1:10" ht="60" customHeight="1">
-      <c r="A16" s="5">
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+    </row>
+    <row r="17" spans="1:10" ht="60" customHeight="1">
+      <c r="A17" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1">
-      <c r="A17" s="5">
+      <c r="B17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1">
+      <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-    </row>
-    <row r="18" spans="1:10" ht="14.45" customHeight="1">
-      <c r="A18" s="5">
+      <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.45" customHeight="1">
+      <c r="A19" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.899999999999999" customHeight="1">
-      <c r="A20" s="19" t="s">
+      <c r="B19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+    </row>
+    <row r="21" spans="1:10" ht="16.899999999999999" customHeight="1">
+      <c r="A21" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B21" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-    </row>
-    <row r="21" spans="1:10" ht="21" customHeight="1">
-      <c r="A21" s="6">
+      <c r="C21" s="61"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+    </row>
+    <row r="22" spans="1:10" ht="21" customHeight="1">
+      <c r="A22" s="6">
         <v>1</v>
       </c>
-      <c r="B21" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="63"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-    </row>
-    <row r="22" spans="1:10" ht="45.6" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="B22" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="59"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+    </row>
+    <row r="23" spans="1:10" ht="45.6" customHeight="1">
+      <c r="A23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="62"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-    </row>
-    <row r="23" spans="1:10" ht="40.9" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="62"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-    </row>
-    <row r="24" spans="1:10" ht="84" customHeight="1">
+      <c r="B23" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="58"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+    </row>
+    <row r="24" spans="1:10" ht="40.9" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="62"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1">
-      <c r="A25" s="6">
+      <c r="B24" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+    </row>
+    <row r="25" spans="1:10" ht="84" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="58"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1">
+      <c r="A26" s="6">
         <v>2</v>
       </c>
-      <c r="B25" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="63"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-    </row>
-    <row r="26" spans="1:10" ht="45.75" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="52"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-    </row>
-    <row r="27" spans="1:10" ht="108.6" customHeight="1">
+      <c r="B26" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="59"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+    </row>
+    <row r="27" spans="1:10" ht="45.75" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="52"/>
-    </row>
-    <row r="28" spans="1:10" ht="48" customHeight="1">
+      <c r="B27" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+    </row>
+    <row r="28" spans="1:10" ht="108.6" customHeight="1">
       <c r="A28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="52"/>
-    </row>
-    <row r="29" spans="1:10" ht="77.45" customHeight="1">
+      <c r="B28" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="57"/>
+    </row>
+    <row r="29" spans="1:10" ht="48" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="52"/>
+        <v>31</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="57"/>
+    </row>
+    <row r="30" spans="1:10" ht="77.45" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E18:J26"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E19:J27"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E2:J11"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E14:J16"/>
-    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E2:J12"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E15:J17"/>
+    <mergeCell ref="E18:J18"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2193,7 +2204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:T44"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="P2" sqref="P2:T20"/>
     </sheetView>
   </sheetViews>
@@ -2203,895 +2214,895 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20">
-      <c r="B1" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
+      <c r="B1" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="59" t="s">
+      <c r="P1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
     </row>
     <row r="2" spans="2:20" ht="15">
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="P2" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="P2" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
     </row>
     <row r="8" spans="2:20">
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
     </row>
     <row r="18" spans="2:20">
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
+      <c r="B21" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
     </row>
     <row r="22" spans="2:20" ht="15">
-      <c r="B22" s="70"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="72"/>
-      <c r="P22" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="68"/>
+      <c r="P22" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="73"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="75"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="71"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="73"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="75"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="71"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="75"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="71"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="73"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="75"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="71"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="73"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="75"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="71"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="73"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="75"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="60"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="71"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="73"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="75"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="71"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="73"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="75"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="71"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="73"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="75"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="60"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="71"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
     </row>
     <row r="32" spans="2:20">
-      <c r="B32" s="73"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="75"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="60"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="71"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
     </row>
     <row r="33" spans="2:20">
-      <c r="B33" s="73"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="75"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="60"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="71"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="73"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="60"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="71"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
     </row>
     <row r="35" spans="2:20">
-      <c r="B35" s="73"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="75"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="60"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="71"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
     </row>
     <row r="36" spans="2:20">
-      <c r="B36" s="73"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="75"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="60"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="71"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
     </row>
     <row r="37" spans="2:20">
-      <c r="B37" s="73"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="75"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="60"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="71"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
     </row>
     <row r="38" spans="2:20">
-      <c r="B38" s="73"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="75"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="60"/>
-      <c r="R38" s="60"/>
-      <c r="S38" s="60"/>
-      <c r="T38" s="60"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="71"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
     </row>
     <row r="39" spans="2:20">
-      <c r="B39" s="73"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="75"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="60"/>
-      <c r="R39" s="60"/>
-      <c r="S39" s="60"/>
-      <c r="T39" s="60"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="71"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
     </row>
     <row r="40" spans="2:20">
-      <c r="B40" s="73"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="75"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="60"/>
-      <c r="R40" s="60"/>
-      <c r="S40" s="60"/>
-      <c r="T40" s="60"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="71"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
     </row>
     <row r="41" spans="2:20">
-      <c r="B41" s="73"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="75"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="60"/>
-      <c r="R41" s="60"/>
-      <c r="S41" s="60"/>
-      <c r="T41" s="60"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="71"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
     </row>
     <row r="42" spans="2:20">
-      <c r="B42" s="73"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="75"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="60"/>
-      <c r="R42" s="60"/>
-      <c r="S42" s="60"/>
-      <c r="T42" s="60"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="71"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
     </row>
     <row r="43" spans="2:20">
-      <c r="B43" s="73"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="75"/>
-      <c r="P43" s="60"/>
-      <c r="Q43" s="60"/>
-      <c r="R43" s="60"/>
-      <c r="S43" s="60"/>
-      <c r="T43" s="60"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="71"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="54"/>
     </row>
     <row r="44" spans="2:20">
-      <c r="B44" s="76"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="78"/>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="60"/>
-      <c r="R44" s="60"/>
-      <c r="S44" s="60"/>
-      <c r="T44" s="60"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="74"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3112,10 +3123,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:D24"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -3127,561 +3138,534 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="F1" s="59" t="s">
+      <c r="A1" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="F1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
+      <c r="B2" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="81"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="88"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="89"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1">
+      <c r="A7" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C7" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D7" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+    </row>
+    <row r="8" spans="1:11" ht="15">
+      <c r="A8" s="18">
+        <v>2</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="83"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1">
-      <c r="A5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B9" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-    </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1">
-      <c r="A6" s="36" t="s">
+      <c r="C9" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="91"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="83"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+    </row>
+    <row r="11" spans="1:11" ht="45" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1">
+      <c r="A12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="75"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+    </row>
+    <row r="13" spans="1:11" ht="45" customHeight="1">
+      <c r="A13" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="75"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+    </row>
+    <row r="14" spans="1:11" ht="21.6" customHeight="1">
+      <c r="A14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="18">
-        <v>2</v>
-      </c>
-      <c r="B7" s="33" t="s">
+      <c r="B14" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" ht="15">
+      <c r="A15" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1">
+      <c r="A16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="22" t="s">
+      <c r="D16" s="85"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1">
+      <c r="A17" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="86"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1">
+      <c r="A18" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="89"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
-      <c r="A9" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="85"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-    </row>
-    <row r="10" spans="1:11" ht="45" customHeight="1">
-      <c r="A10" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="24" t="s">
+      <c r="B18" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" customHeight="1">
+      <c r="A19" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="85"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-    </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1">
-      <c r="A12" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="81" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="81"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-    </row>
-    <row r="13" spans="1:11" ht="39.6" customHeight="1">
-      <c r="A13" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="81" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="81"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-    </row>
-    <row r="14" spans="1:11" ht="45" customHeight="1">
-      <c r="A14" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="81"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-    </row>
-    <row r="15" spans="1:11" ht="21.6" customHeight="1">
-      <c r="A15" s="37" t="s">
+      <c r="C19" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="28" t="s">
+      <c r="B20" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1">
-      <c r="A17" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="89"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1">
-      <c r="A18" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="90"/>
-    </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1">
-      <c r="A19" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="45" customHeight="1">
-      <c r="A20" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="89"/>
+      <c r="D20" s="91"/>
+    </row>
+    <row r="21" spans="1:4" ht="28.9">
+      <c r="A21" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="75"/>
     </row>
     <row r="22" spans="1:4" ht="28.9">
       <c r="A22" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="81"/>
+        <v>100</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="75"/>
     </row>
     <row r="23" spans="1:4" ht="28.9">
       <c r="A23" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="81" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="81"/>
-    </row>
-    <row r="24" spans="1:4" ht="28.9">
-      <c r="A24" s="18" t="s">
         <v>103</v>
       </c>
+      <c r="B23" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="77"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="B24" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="87"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" customHeight="1">
+      <c r="A25" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="45" customHeight="1">
-      <c r="A26" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="22" t="s">
+      <c r="D26" s="91"/>
+    </row>
+    <row r="27" spans="1:4" ht="45.75">
+      <c r="A27" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="75"/>
+    </row>
+    <row r="28" spans="1:4" ht="45.75">
+      <c r="A28" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="75"/>
+    </row>
+    <row r="29" spans="1:4" ht="28.9">
+      <c r="A29" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="75"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="89"/>
-    </row>
-    <row r="28" spans="1:4" ht="28.9">
-      <c r="A28" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="81" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="81"/>
-    </row>
-    <row r="29" spans="1:4" ht="43.15">
-      <c r="A29" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="81"/>
-    </row>
-    <row r="30" spans="1:4" ht="28.9">
-      <c r="A30" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="81"/>
-    </row>
-    <row r="31" spans="1:4" ht="28.9">
-      <c r="A31" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="33" t="s">
+      <c r="B30" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
+      <c r="A31" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="B31" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="41"/>
+      <c r="D31" s="18" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="18" t="s">
+      <c r="B32" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="91"/>
+    </row>
+    <row r="33" spans="1:4" ht="30.75">
+      <c r="A33" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="33" t="s">
+      <c r="B33" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="89"/>
-    </row>
-    <row r="35" spans="1:4" ht="28.9">
-      <c r="A35" s="27" t="s">
+      <c r="C33" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="90"/>
-    </row>
+      <c r="D33" s="92"/>
+    </row>
+    <row r="34" spans="1:4" ht="15"/>
+    <row r="35" spans="1:4" ht="15"/>
+    <row r="36" spans="1:4" ht="15"/>
+    <row r="37" spans="1:4" ht="15"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C21:D21"/>
+  <mergeCells count="21">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K14"/>
+    <mergeCell ref="F2:K13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3692,8 +3676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -3705,175 +3689,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="A1" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="17" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1">
+      <c r="A3" s="28">
+        <v>1</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="F3" s="28" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="31">
-        <v>1</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="G3" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="31" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="52.5" customHeight="1">
+      <c r="A4" s="28">
+        <v>2</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="D4" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="52.5" customHeight="1">
-      <c r="A4" s="31">
-        <v>2</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="31" t="s">
+      <c r="F4" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="G4" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="31" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="45" customHeight="1">
+      <c r="A5" s="38">
+        <v>3</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="F5" s="39" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" customHeight="1">
-      <c r="A5" s="42">
-        <v>3</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="44" t="s">
+      <c r="G5" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="43" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="40.5">
+      <c r="A6" s="28">
+        <v>4</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="F6" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45.75">
+      <c r="A7" s="41">
+        <v>5</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="42" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="41.45">
-      <c r="A6" s="31">
-        <v>4</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="F7" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="43.15">
-      <c r="A7" s="45">
-        <v>5</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="46" t="s">
+      <c r="G7" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="45" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="25.15" customHeight="1">
+      <c r="A8" s="38">
+        <v>6</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="45" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="25.15" customHeight="1">
-      <c r="A8" s="42">
-        <v>6</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>134</v>
+      <c r="F8" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4020,6 +4004,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C10CBD0BFFFC4C45AC3F11163104E16D" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="262411e6662ad09615282c69781eb9d9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b60a26d6-954b-4ea8-8ffb-45e6dc51f000" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c47ce3659eb4404f7d05dc3dfe6d55d0" ns2:_="">
     <xsd:import namespace="b60a26d6-954b-4ea8-8ffb-45e6dc51f000"/>
@@ -4151,12 +4141,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4167,11 +4151,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF39737-84FF-4EF8-BD97-5D0EF02227DA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BB517A3-CC67-477D-B6B3-FBDAE4AB9BBA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BB517A3-CC67-477D-B6B3-FBDAE4AB9BBA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF39737-84FF-4EF8-BD97-5D0EF02227DA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
